--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -1,17 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\Hackathon\LMS_UI_Hackathon_Oct24\Team4_SeleniumSquad_LMSUI\src\test\resources\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468567F4-6279-401E-9E46-CA8D34C15BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Login" sheetId="1" r:id="rId4"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Class" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>testcase</t>
   </si>
@@ -38,21 +61,71 @@
   </si>
   <si>
     <t>hgjhgjh</t>
+  </si>
+  <si>
+    <t>Batchname</t>
+  </si>
+  <si>
+    <t>ClassTopic</t>
+  </si>
+  <si>
+    <t>ClassDescription</t>
+  </si>
+  <si>
+    <t>SelectClassDates</t>
+  </si>
+  <si>
+    <t>NoofClasses</t>
+  </si>
+  <si>
+    <t>StaffName</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Recording</t>
+  </si>
+  <si>
+    <t>validInputAll</t>
+  </si>
+  <si>
+    <t>validInputMandatory</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Oracle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -62,36 +135,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -281,23 +364,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.25"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -308,18 +396,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -331,6 +419,77 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C029B5E5-F3C9-4D25-B852-132970CAF380}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F31D4-4607-44BA-AE04-13824B74BD83}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -1,40 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\Hackathon\LMS_UI_Hackathon_Oct24\Team4_SeleniumSquad_LMSUI\src\test\resources\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468567F4-6279-401E-9E46-CA8D34C15BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Class" sheetId="2" r:id="rId2"/>
+    <sheet state="visible" name="Login" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Class" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Program" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>testcase</t>
   </si>
@@ -96,36 +75,75 @@
     <t>validInputAll</t>
   </si>
   <si>
+    <t>Oracle</t>
+  </si>
+  <si>
     <t>validInputMandatory</t>
   </si>
   <si>
     <t>Invalid</t>
   </si>
   <si>
-    <t>Oracle</t>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>ProgramDescription</t>
+  </si>
+  <si>
+    <t>ProgramStatus</t>
+  </si>
+  <si>
+    <t>MSFinance</t>
+  </si>
+  <si>
+    <t>undergrad</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>BlankProgramName</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>InvalidProgramName</t>
+  </si>
+  <si>
+    <t>MSFinance-</t>
+  </si>
+  <si>
+    <t>BlankDescriptionName</t>
+  </si>
+  <si>
+    <t>BlankStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -135,46 +153,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -364,28 +383,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="14.25"/>
+    <col customWidth="1" min="2" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,7 +412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -407,7 +423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -418,78 +434,2175 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" ht="15.75" customHeight="1"/>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C029B5E5-F3C9-4D25-B852-132970CAF380}"/>
+    <hyperlink r:id="rId1" ref="C2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F31D4-4607-44BA-AE04-13824B74BD83}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="26" width="8.63"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" ht="12.0" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" ht="12.0" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="12.0" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="12.0" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
+    <row r="5" ht="12.0" customHeight="1"/>
+    <row r="6" ht="12.0" customHeight="1"/>
+    <row r="7" ht="12.0" customHeight="1"/>
+    <row r="8" ht="12.0" customHeight="1"/>
+    <row r="9" ht="12.0" customHeight="1"/>
+    <row r="10" ht="12.0" customHeight="1"/>
+    <row r="11" ht="12.0" customHeight="1"/>
+    <row r="12" ht="12.0" customHeight="1"/>
+    <row r="13" ht="12.0" customHeight="1"/>
+    <row r="14" ht="12.0" customHeight="1"/>
+    <row r="15" ht="12.0" customHeight="1"/>
+    <row r="16" ht="12.0" customHeight="1"/>
+    <row r="17" ht="12.0" customHeight="1"/>
+    <row r="18" ht="12.0" customHeight="1"/>
+    <row r="19" ht="12.0" customHeight="1"/>
+    <row r="20" ht="12.0" customHeight="1"/>
+    <row r="21" ht="12.0" customHeight="1"/>
+    <row r="22" ht="12.0" customHeight="1"/>
+    <row r="23" ht="12.0" customHeight="1"/>
+    <row r="24" ht="12.0" customHeight="1"/>
+    <row r="25" ht="12.0" customHeight="1"/>
+    <row r="26" ht="12.0" customHeight="1"/>
+    <row r="27" ht="12.0" customHeight="1"/>
+    <row r="28" ht="12.0" customHeight="1"/>
+    <row r="29" ht="12.0" customHeight="1"/>
+    <row r="30" ht="12.0" customHeight="1"/>
+    <row r="31" ht="12.0" customHeight="1"/>
+    <row r="32" ht="12.0" customHeight="1"/>
+    <row r="33" ht="12.0" customHeight="1"/>
+    <row r="34" ht="12.0" customHeight="1"/>
+    <row r="35" ht="12.0" customHeight="1"/>
+    <row r="36" ht="12.0" customHeight="1"/>
+    <row r="37" ht="12.0" customHeight="1"/>
+    <row r="38" ht="12.0" customHeight="1"/>
+    <row r="39" ht="12.0" customHeight="1"/>
+    <row r="40" ht="12.0" customHeight="1"/>
+    <row r="41" ht="12.0" customHeight="1"/>
+    <row r="42" ht="12.0" customHeight="1"/>
+    <row r="43" ht="12.0" customHeight="1"/>
+    <row r="44" ht="12.0" customHeight="1"/>
+    <row r="45" ht="12.0" customHeight="1"/>
+    <row r="46" ht="12.0" customHeight="1"/>
+    <row r="47" ht="12.0" customHeight="1"/>
+    <row r="48" ht="12.0" customHeight="1"/>
+    <row r="49" ht="12.0" customHeight="1"/>
+    <row r="50" ht="12.0" customHeight="1"/>
+    <row r="51" ht="12.0" customHeight="1"/>
+    <row r="52" ht="12.0" customHeight="1"/>
+    <row r="53" ht="12.0" customHeight="1"/>
+    <row r="54" ht="12.0" customHeight="1"/>
+    <row r="55" ht="12.0" customHeight="1"/>
+    <row r="56" ht="12.0" customHeight="1"/>
+    <row r="57" ht="12.0" customHeight="1"/>
+    <row r="58" ht="12.0" customHeight="1"/>
+    <row r="59" ht="12.0" customHeight="1"/>
+    <row r="60" ht="12.0" customHeight="1"/>
+    <row r="61" ht="12.0" customHeight="1"/>
+    <row r="62" ht="12.0" customHeight="1"/>
+    <row r="63" ht="12.0" customHeight="1"/>
+    <row r="64" ht="12.0" customHeight="1"/>
+    <row r="65" ht="12.0" customHeight="1"/>
+    <row r="66" ht="12.0" customHeight="1"/>
+    <row r="67" ht="12.0" customHeight="1"/>
+    <row r="68" ht="12.0" customHeight="1"/>
+    <row r="69" ht="12.0" customHeight="1"/>
+    <row r="70" ht="12.0" customHeight="1"/>
+    <row r="71" ht="12.0" customHeight="1"/>
+    <row r="72" ht="12.0" customHeight="1"/>
+    <row r="73" ht="12.0" customHeight="1"/>
+    <row r="74" ht="12.0" customHeight="1"/>
+    <row r="75" ht="12.0" customHeight="1"/>
+    <row r="76" ht="12.0" customHeight="1"/>
+    <row r="77" ht="12.0" customHeight="1"/>
+    <row r="78" ht="12.0" customHeight="1"/>
+    <row r="79" ht="12.0" customHeight="1"/>
+    <row r="80" ht="12.0" customHeight="1"/>
+    <row r="81" ht="12.0" customHeight="1"/>
+    <row r="82" ht="12.0" customHeight="1"/>
+    <row r="83" ht="12.0" customHeight="1"/>
+    <row r="84" ht="12.0" customHeight="1"/>
+    <row r="85" ht="12.0" customHeight="1"/>
+    <row r="86" ht="12.0" customHeight="1"/>
+    <row r="87" ht="12.0" customHeight="1"/>
+    <row r="88" ht="12.0" customHeight="1"/>
+    <row r="89" ht="12.0" customHeight="1"/>
+    <row r="90" ht="12.0" customHeight="1"/>
+    <row r="91" ht="12.0" customHeight="1"/>
+    <row r="92" ht="12.0" customHeight="1"/>
+    <row r="93" ht="12.0" customHeight="1"/>
+    <row r="94" ht="12.0" customHeight="1"/>
+    <row r="95" ht="12.0" customHeight="1"/>
+    <row r="96" ht="12.0" customHeight="1"/>
+    <row r="97" ht="12.0" customHeight="1"/>
+    <row r="98" ht="12.0" customHeight="1"/>
+    <row r="99" ht="12.0" customHeight="1"/>
+    <row r="100" ht="12.0" customHeight="1"/>
+    <row r="101" ht="12.0" customHeight="1"/>
+    <row r="102" ht="12.0" customHeight="1"/>
+    <row r="103" ht="12.0" customHeight="1"/>
+    <row r="104" ht="12.0" customHeight="1"/>
+    <row r="105" ht="12.0" customHeight="1"/>
+    <row r="106" ht="12.0" customHeight="1"/>
+    <row r="107" ht="12.0" customHeight="1"/>
+    <row r="108" ht="12.0" customHeight="1"/>
+    <row r="109" ht="12.0" customHeight="1"/>
+    <row r="110" ht="12.0" customHeight="1"/>
+    <row r="111" ht="12.0" customHeight="1"/>
+    <row r="112" ht="12.0" customHeight="1"/>
+    <row r="113" ht="12.0" customHeight="1"/>
+    <row r="114" ht="12.0" customHeight="1"/>
+    <row r="115" ht="12.0" customHeight="1"/>
+    <row r="116" ht="12.0" customHeight="1"/>
+    <row r="117" ht="12.0" customHeight="1"/>
+    <row r="118" ht="12.0" customHeight="1"/>
+    <row r="119" ht="12.0" customHeight="1"/>
+    <row r="120" ht="12.0" customHeight="1"/>
+    <row r="121" ht="12.0" customHeight="1"/>
+    <row r="122" ht="12.0" customHeight="1"/>
+    <row r="123" ht="12.0" customHeight="1"/>
+    <row r="124" ht="12.0" customHeight="1"/>
+    <row r="125" ht="12.0" customHeight="1"/>
+    <row r="126" ht="12.0" customHeight="1"/>
+    <row r="127" ht="12.0" customHeight="1"/>
+    <row r="128" ht="12.0" customHeight="1"/>
+    <row r="129" ht="12.0" customHeight="1"/>
+    <row r="130" ht="12.0" customHeight="1"/>
+    <row r="131" ht="12.0" customHeight="1"/>
+    <row r="132" ht="12.0" customHeight="1"/>
+    <row r="133" ht="12.0" customHeight="1"/>
+    <row r="134" ht="12.0" customHeight="1"/>
+    <row r="135" ht="12.0" customHeight="1"/>
+    <row r="136" ht="12.0" customHeight="1"/>
+    <row r="137" ht="12.0" customHeight="1"/>
+    <row r="138" ht="12.0" customHeight="1"/>
+    <row r="139" ht="12.0" customHeight="1"/>
+    <row r="140" ht="12.0" customHeight="1"/>
+    <row r="141" ht="12.0" customHeight="1"/>
+    <row r="142" ht="12.0" customHeight="1"/>
+    <row r="143" ht="12.0" customHeight="1"/>
+    <row r="144" ht="12.0" customHeight="1"/>
+    <row r="145" ht="12.0" customHeight="1"/>
+    <row r="146" ht="12.0" customHeight="1"/>
+    <row r="147" ht="12.0" customHeight="1"/>
+    <row r="148" ht="12.0" customHeight="1"/>
+    <row r="149" ht="12.0" customHeight="1"/>
+    <row r="150" ht="12.0" customHeight="1"/>
+    <row r="151" ht="12.0" customHeight="1"/>
+    <row r="152" ht="12.0" customHeight="1"/>
+    <row r="153" ht="12.0" customHeight="1"/>
+    <row r="154" ht="12.0" customHeight="1"/>
+    <row r="155" ht="12.0" customHeight="1"/>
+    <row r="156" ht="12.0" customHeight="1"/>
+    <row r="157" ht="12.0" customHeight="1"/>
+    <row r="158" ht="12.0" customHeight="1"/>
+    <row r="159" ht="12.0" customHeight="1"/>
+    <row r="160" ht="12.0" customHeight="1"/>
+    <row r="161" ht="12.0" customHeight="1"/>
+    <row r="162" ht="12.0" customHeight="1"/>
+    <row r="163" ht="12.0" customHeight="1"/>
+    <row r="164" ht="12.0" customHeight="1"/>
+    <row r="165" ht="12.0" customHeight="1"/>
+    <row r="166" ht="12.0" customHeight="1"/>
+    <row r="167" ht="12.0" customHeight="1"/>
+    <row r="168" ht="12.0" customHeight="1"/>
+    <row r="169" ht="12.0" customHeight="1"/>
+    <row r="170" ht="12.0" customHeight="1"/>
+    <row r="171" ht="12.0" customHeight="1"/>
+    <row r="172" ht="12.0" customHeight="1"/>
+    <row r="173" ht="12.0" customHeight="1"/>
+    <row r="174" ht="12.0" customHeight="1"/>
+    <row r="175" ht="12.0" customHeight="1"/>
+    <row r="176" ht="12.0" customHeight="1"/>
+    <row r="177" ht="12.0" customHeight="1"/>
+    <row r="178" ht="12.0" customHeight="1"/>
+    <row r="179" ht="12.0" customHeight="1"/>
+    <row r="180" ht="12.0" customHeight="1"/>
+    <row r="181" ht="12.0" customHeight="1"/>
+    <row r="182" ht="12.0" customHeight="1"/>
+    <row r="183" ht="12.0" customHeight="1"/>
+    <row r="184" ht="12.0" customHeight="1"/>
+    <row r="185" ht="12.0" customHeight="1"/>
+    <row r="186" ht="12.0" customHeight="1"/>
+    <row r="187" ht="12.0" customHeight="1"/>
+    <row r="188" ht="12.0" customHeight="1"/>
+    <row r="189" ht="12.0" customHeight="1"/>
+    <row r="190" ht="12.0" customHeight="1"/>
+    <row r="191" ht="12.0" customHeight="1"/>
+    <row r="192" ht="12.0" customHeight="1"/>
+    <row r="193" ht="12.0" customHeight="1"/>
+    <row r="194" ht="12.0" customHeight="1"/>
+    <row r="195" ht="12.0" customHeight="1"/>
+    <row r="196" ht="12.0" customHeight="1"/>
+    <row r="197" ht="12.0" customHeight="1"/>
+    <row r="198" ht="12.0" customHeight="1"/>
+    <row r="199" ht="12.0" customHeight="1"/>
+    <row r="200" ht="12.0" customHeight="1"/>
+    <row r="201" ht="12.0" customHeight="1"/>
+    <row r="202" ht="12.0" customHeight="1"/>
+    <row r="203" ht="12.0" customHeight="1"/>
+    <row r="204" ht="12.0" customHeight="1"/>
+    <row r="205" ht="12.0" customHeight="1"/>
+    <row r="206" ht="12.0" customHeight="1"/>
+    <row r="207" ht="12.0" customHeight="1"/>
+    <row r="208" ht="12.0" customHeight="1"/>
+    <row r="209" ht="12.0" customHeight="1"/>
+    <row r="210" ht="12.0" customHeight="1"/>
+    <row r="211" ht="12.0" customHeight="1"/>
+    <row r="212" ht="12.0" customHeight="1"/>
+    <row r="213" ht="12.0" customHeight="1"/>
+    <row r="214" ht="12.0" customHeight="1"/>
+    <row r="215" ht="12.0" customHeight="1"/>
+    <row r="216" ht="12.0" customHeight="1"/>
+    <row r="217" ht="12.0" customHeight="1"/>
+    <row r="218" ht="12.0" customHeight="1"/>
+    <row r="219" ht="12.0" customHeight="1"/>
+    <row r="220" ht="12.0" customHeight="1"/>
+    <row r="221" ht="12.0" customHeight="1"/>
+    <row r="222" ht="12.0" customHeight="1"/>
+    <row r="223" ht="12.0" customHeight="1"/>
+    <row r="224" ht="12.0" customHeight="1"/>
+    <row r="225" ht="12.0" customHeight="1"/>
+    <row r="226" ht="12.0" customHeight="1"/>
+    <row r="227" ht="12.0" customHeight="1"/>
+    <row r="228" ht="12.0" customHeight="1"/>
+    <row r="229" ht="12.0" customHeight="1"/>
+    <row r="230" ht="12.0" customHeight="1"/>
+    <row r="231" ht="12.0" customHeight="1"/>
+    <row r="232" ht="12.0" customHeight="1"/>
+    <row r="233" ht="12.0" customHeight="1"/>
+    <row r="234" ht="12.0" customHeight="1"/>
+    <row r="235" ht="12.0" customHeight="1"/>
+    <row r="236" ht="12.0" customHeight="1"/>
+    <row r="237" ht="12.0" customHeight="1"/>
+    <row r="238" ht="12.0" customHeight="1"/>
+    <row r="239" ht="12.0" customHeight="1"/>
+    <row r="240" ht="12.0" customHeight="1"/>
+    <row r="241" ht="12.0" customHeight="1"/>
+    <row r="242" ht="12.0" customHeight="1"/>
+    <row r="243" ht="12.0" customHeight="1"/>
+    <row r="244" ht="12.0" customHeight="1"/>
+    <row r="245" ht="12.0" customHeight="1"/>
+    <row r="246" ht="12.0" customHeight="1"/>
+    <row r="247" ht="12.0" customHeight="1"/>
+    <row r="248" ht="12.0" customHeight="1"/>
+    <row r="249" ht="12.0" customHeight="1"/>
+    <row r="250" ht="12.0" customHeight="1"/>
+    <row r="251" ht="12.0" customHeight="1"/>
+    <row r="252" ht="12.0" customHeight="1"/>
+    <row r="253" ht="12.0" customHeight="1"/>
+    <row r="254" ht="12.0" customHeight="1"/>
+    <row r="255" ht="12.0" customHeight="1"/>
+    <row r="256" ht="12.0" customHeight="1"/>
+    <row r="257" ht="12.0" customHeight="1"/>
+    <row r="258" ht="12.0" customHeight="1"/>
+    <row r="259" ht="12.0" customHeight="1"/>
+    <row r="260" ht="12.0" customHeight="1"/>
+    <row r="261" ht="12.0" customHeight="1"/>
+    <row r="262" ht="12.0" customHeight="1"/>
+    <row r="263" ht="12.0" customHeight="1"/>
+    <row r="264" ht="12.0" customHeight="1"/>
+    <row r="265" ht="12.0" customHeight="1"/>
+    <row r="266" ht="12.0" customHeight="1"/>
+    <row r="267" ht="12.0" customHeight="1"/>
+    <row r="268" ht="12.0" customHeight="1"/>
+    <row r="269" ht="12.0" customHeight="1"/>
+    <row r="270" ht="12.0" customHeight="1"/>
+    <row r="271" ht="12.0" customHeight="1"/>
+    <row r="272" ht="12.0" customHeight="1"/>
+    <row r="273" ht="12.0" customHeight="1"/>
+    <row r="274" ht="12.0" customHeight="1"/>
+    <row r="275" ht="12.0" customHeight="1"/>
+    <row r="276" ht="12.0" customHeight="1"/>
+    <row r="277" ht="12.0" customHeight="1"/>
+    <row r="278" ht="12.0" customHeight="1"/>
+    <row r="279" ht="12.0" customHeight="1"/>
+    <row r="280" ht="12.0" customHeight="1"/>
+    <row r="281" ht="12.0" customHeight="1"/>
+    <row r="282" ht="12.0" customHeight="1"/>
+    <row r="283" ht="12.0" customHeight="1"/>
+    <row r="284" ht="12.0" customHeight="1"/>
+    <row r="285" ht="12.0" customHeight="1"/>
+    <row r="286" ht="12.0" customHeight="1"/>
+    <row r="287" ht="12.0" customHeight="1"/>
+    <row r="288" ht="12.0" customHeight="1"/>
+    <row r="289" ht="12.0" customHeight="1"/>
+    <row r="290" ht="12.0" customHeight="1"/>
+    <row r="291" ht="12.0" customHeight="1"/>
+    <row r="292" ht="12.0" customHeight="1"/>
+    <row r="293" ht="12.0" customHeight="1"/>
+    <row r="294" ht="12.0" customHeight="1"/>
+    <row r="295" ht="12.0" customHeight="1"/>
+    <row r="296" ht="12.0" customHeight="1"/>
+    <row r="297" ht="12.0" customHeight="1"/>
+    <row r="298" ht="12.0" customHeight="1"/>
+    <row r="299" ht="12.0" customHeight="1"/>
+    <row r="300" ht="12.0" customHeight="1"/>
+    <row r="301" ht="12.0" customHeight="1"/>
+    <row r="302" ht="12.0" customHeight="1"/>
+    <row r="303" ht="12.0" customHeight="1"/>
+    <row r="304" ht="12.0" customHeight="1"/>
+    <row r="305" ht="12.0" customHeight="1"/>
+    <row r="306" ht="12.0" customHeight="1"/>
+    <row r="307" ht="12.0" customHeight="1"/>
+    <row r="308" ht="12.0" customHeight="1"/>
+    <row r="309" ht="12.0" customHeight="1"/>
+    <row r="310" ht="12.0" customHeight="1"/>
+    <row r="311" ht="12.0" customHeight="1"/>
+    <row r="312" ht="12.0" customHeight="1"/>
+    <row r="313" ht="12.0" customHeight="1"/>
+    <row r="314" ht="12.0" customHeight="1"/>
+    <row r="315" ht="12.0" customHeight="1"/>
+    <row r="316" ht="12.0" customHeight="1"/>
+    <row r="317" ht="12.0" customHeight="1"/>
+    <row r="318" ht="12.0" customHeight="1"/>
+    <row r="319" ht="12.0" customHeight="1"/>
+    <row r="320" ht="12.0" customHeight="1"/>
+    <row r="321" ht="12.0" customHeight="1"/>
+    <row r="322" ht="12.0" customHeight="1"/>
+    <row r="323" ht="12.0" customHeight="1"/>
+    <row r="324" ht="12.0" customHeight="1"/>
+    <row r="325" ht="12.0" customHeight="1"/>
+    <row r="326" ht="12.0" customHeight="1"/>
+    <row r="327" ht="12.0" customHeight="1"/>
+    <row r="328" ht="12.0" customHeight="1"/>
+    <row r="329" ht="12.0" customHeight="1"/>
+    <row r="330" ht="12.0" customHeight="1"/>
+    <row r="331" ht="12.0" customHeight="1"/>
+    <row r="332" ht="12.0" customHeight="1"/>
+    <row r="333" ht="12.0" customHeight="1"/>
+    <row r="334" ht="12.0" customHeight="1"/>
+    <row r="335" ht="12.0" customHeight="1"/>
+    <row r="336" ht="12.0" customHeight="1"/>
+    <row r="337" ht="12.0" customHeight="1"/>
+    <row r="338" ht="12.0" customHeight="1"/>
+    <row r="339" ht="12.0" customHeight="1"/>
+    <row r="340" ht="12.0" customHeight="1"/>
+    <row r="341" ht="12.0" customHeight="1"/>
+    <row r="342" ht="12.0" customHeight="1"/>
+    <row r="343" ht="12.0" customHeight="1"/>
+    <row r="344" ht="12.0" customHeight="1"/>
+    <row r="345" ht="12.0" customHeight="1"/>
+    <row r="346" ht="12.0" customHeight="1"/>
+    <row r="347" ht="12.0" customHeight="1"/>
+    <row r="348" ht="12.0" customHeight="1"/>
+    <row r="349" ht="12.0" customHeight="1"/>
+    <row r="350" ht="12.0" customHeight="1"/>
+    <row r="351" ht="12.0" customHeight="1"/>
+    <row r="352" ht="12.0" customHeight="1"/>
+    <row r="353" ht="12.0" customHeight="1"/>
+    <row r="354" ht="12.0" customHeight="1"/>
+    <row r="355" ht="12.0" customHeight="1"/>
+    <row r="356" ht="12.0" customHeight="1"/>
+    <row r="357" ht="12.0" customHeight="1"/>
+    <row r="358" ht="12.0" customHeight="1"/>
+    <row r="359" ht="12.0" customHeight="1"/>
+    <row r="360" ht="12.0" customHeight="1"/>
+    <row r="361" ht="12.0" customHeight="1"/>
+    <row r="362" ht="12.0" customHeight="1"/>
+    <row r="363" ht="12.0" customHeight="1"/>
+    <row r="364" ht="12.0" customHeight="1"/>
+    <row r="365" ht="12.0" customHeight="1"/>
+    <row r="366" ht="12.0" customHeight="1"/>
+    <row r="367" ht="12.0" customHeight="1"/>
+    <row r="368" ht="12.0" customHeight="1"/>
+    <row r="369" ht="12.0" customHeight="1"/>
+    <row r="370" ht="12.0" customHeight="1"/>
+    <row r="371" ht="12.0" customHeight="1"/>
+    <row r="372" ht="12.0" customHeight="1"/>
+    <row r="373" ht="12.0" customHeight="1"/>
+    <row r="374" ht="12.0" customHeight="1"/>
+    <row r="375" ht="12.0" customHeight="1"/>
+    <row r="376" ht="12.0" customHeight="1"/>
+    <row r="377" ht="12.0" customHeight="1"/>
+    <row r="378" ht="12.0" customHeight="1"/>
+    <row r="379" ht="12.0" customHeight="1"/>
+    <row r="380" ht="12.0" customHeight="1"/>
+    <row r="381" ht="12.0" customHeight="1"/>
+    <row r="382" ht="12.0" customHeight="1"/>
+    <row r="383" ht="12.0" customHeight="1"/>
+    <row r="384" ht="12.0" customHeight="1"/>
+    <row r="385" ht="12.0" customHeight="1"/>
+    <row r="386" ht="12.0" customHeight="1"/>
+    <row r="387" ht="12.0" customHeight="1"/>
+    <row r="388" ht="12.0" customHeight="1"/>
+    <row r="389" ht="12.0" customHeight="1"/>
+    <row r="390" ht="12.0" customHeight="1"/>
+    <row r="391" ht="12.0" customHeight="1"/>
+    <row r="392" ht="12.0" customHeight="1"/>
+    <row r="393" ht="12.0" customHeight="1"/>
+    <row r="394" ht="12.0" customHeight="1"/>
+    <row r="395" ht="12.0" customHeight="1"/>
+    <row r="396" ht="12.0" customHeight="1"/>
+    <row r="397" ht="12.0" customHeight="1"/>
+    <row r="398" ht="12.0" customHeight="1"/>
+    <row r="399" ht="12.0" customHeight="1"/>
+    <row r="400" ht="12.0" customHeight="1"/>
+    <row r="401" ht="12.0" customHeight="1"/>
+    <row r="402" ht="12.0" customHeight="1"/>
+    <row r="403" ht="12.0" customHeight="1"/>
+    <row r="404" ht="12.0" customHeight="1"/>
+    <row r="405" ht="12.0" customHeight="1"/>
+    <row r="406" ht="12.0" customHeight="1"/>
+    <row r="407" ht="12.0" customHeight="1"/>
+    <row r="408" ht="12.0" customHeight="1"/>
+    <row r="409" ht="12.0" customHeight="1"/>
+    <row r="410" ht="12.0" customHeight="1"/>
+    <row r="411" ht="12.0" customHeight="1"/>
+    <row r="412" ht="12.0" customHeight="1"/>
+    <row r="413" ht="12.0" customHeight="1"/>
+    <row r="414" ht="12.0" customHeight="1"/>
+    <row r="415" ht="12.0" customHeight="1"/>
+    <row r="416" ht="12.0" customHeight="1"/>
+    <row r="417" ht="12.0" customHeight="1"/>
+    <row r="418" ht="12.0" customHeight="1"/>
+    <row r="419" ht="12.0" customHeight="1"/>
+    <row r="420" ht="12.0" customHeight="1"/>
+    <row r="421" ht="12.0" customHeight="1"/>
+    <row r="422" ht="12.0" customHeight="1"/>
+    <row r="423" ht="12.0" customHeight="1"/>
+    <row r="424" ht="12.0" customHeight="1"/>
+    <row r="425" ht="12.0" customHeight="1"/>
+    <row r="426" ht="12.0" customHeight="1"/>
+    <row r="427" ht="12.0" customHeight="1"/>
+    <row r="428" ht="12.0" customHeight="1"/>
+    <row r="429" ht="12.0" customHeight="1"/>
+    <row r="430" ht="12.0" customHeight="1"/>
+    <row r="431" ht="12.0" customHeight="1"/>
+    <row r="432" ht="12.0" customHeight="1"/>
+    <row r="433" ht="12.0" customHeight="1"/>
+    <row r="434" ht="12.0" customHeight="1"/>
+    <row r="435" ht="12.0" customHeight="1"/>
+    <row r="436" ht="12.0" customHeight="1"/>
+    <row r="437" ht="12.0" customHeight="1"/>
+    <row r="438" ht="12.0" customHeight="1"/>
+    <row r="439" ht="12.0" customHeight="1"/>
+    <row r="440" ht="12.0" customHeight="1"/>
+    <row r="441" ht="12.0" customHeight="1"/>
+    <row r="442" ht="12.0" customHeight="1"/>
+    <row r="443" ht="12.0" customHeight="1"/>
+    <row r="444" ht="12.0" customHeight="1"/>
+    <row r="445" ht="12.0" customHeight="1"/>
+    <row r="446" ht="12.0" customHeight="1"/>
+    <row r="447" ht="12.0" customHeight="1"/>
+    <row r="448" ht="12.0" customHeight="1"/>
+    <row r="449" ht="12.0" customHeight="1"/>
+    <row r="450" ht="12.0" customHeight="1"/>
+    <row r="451" ht="12.0" customHeight="1"/>
+    <row r="452" ht="12.0" customHeight="1"/>
+    <row r="453" ht="12.0" customHeight="1"/>
+    <row r="454" ht="12.0" customHeight="1"/>
+    <row r="455" ht="12.0" customHeight="1"/>
+    <row r="456" ht="12.0" customHeight="1"/>
+    <row r="457" ht="12.0" customHeight="1"/>
+    <row r="458" ht="12.0" customHeight="1"/>
+    <row r="459" ht="12.0" customHeight="1"/>
+    <row r="460" ht="12.0" customHeight="1"/>
+    <row r="461" ht="12.0" customHeight="1"/>
+    <row r="462" ht="12.0" customHeight="1"/>
+    <row r="463" ht="12.0" customHeight="1"/>
+    <row r="464" ht="12.0" customHeight="1"/>
+    <row r="465" ht="12.0" customHeight="1"/>
+    <row r="466" ht="12.0" customHeight="1"/>
+    <row r="467" ht="12.0" customHeight="1"/>
+    <row r="468" ht="12.0" customHeight="1"/>
+    <row r="469" ht="12.0" customHeight="1"/>
+    <row r="470" ht="12.0" customHeight="1"/>
+    <row r="471" ht="12.0" customHeight="1"/>
+    <row r="472" ht="12.0" customHeight="1"/>
+    <row r="473" ht="12.0" customHeight="1"/>
+    <row r="474" ht="12.0" customHeight="1"/>
+    <row r="475" ht="12.0" customHeight="1"/>
+    <row r="476" ht="12.0" customHeight="1"/>
+    <row r="477" ht="12.0" customHeight="1"/>
+    <row r="478" ht="12.0" customHeight="1"/>
+    <row r="479" ht="12.0" customHeight="1"/>
+    <row r="480" ht="12.0" customHeight="1"/>
+    <row r="481" ht="12.0" customHeight="1"/>
+    <row r="482" ht="12.0" customHeight="1"/>
+    <row r="483" ht="12.0" customHeight="1"/>
+    <row r="484" ht="12.0" customHeight="1"/>
+    <row r="485" ht="12.0" customHeight="1"/>
+    <row r="486" ht="12.0" customHeight="1"/>
+    <row r="487" ht="12.0" customHeight="1"/>
+    <row r="488" ht="12.0" customHeight="1"/>
+    <row r="489" ht="12.0" customHeight="1"/>
+    <row r="490" ht="12.0" customHeight="1"/>
+    <row r="491" ht="12.0" customHeight="1"/>
+    <row r="492" ht="12.0" customHeight="1"/>
+    <row r="493" ht="12.0" customHeight="1"/>
+    <row r="494" ht="12.0" customHeight="1"/>
+    <row r="495" ht="12.0" customHeight="1"/>
+    <row r="496" ht="12.0" customHeight="1"/>
+    <row r="497" ht="12.0" customHeight="1"/>
+    <row r="498" ht="12.0" customHeight="1"/>
+    <row r="499" ht="12.0" customHeight="1"/>
+    <row r="500" ht="12.0" customHeight="1"/>
+    <row r="501" ht="12.0" customHeight="1"/>
+    <row r="502" ht="12.0" customHeight="1"/>
+    <row r="503" ht="12.0" customHeight="1"/>
+    <row r="504" ht="12.0" customHeight="1"/>
+    <row r="505" ht="12.0" customHeight="1"/>
+    <row r="506" ht="12.0" customHeight="1"/>
+    <row r="507" ht="12.0" customHeight="1"/>
+    <row r="508" ht="12.0" customHeight="1"/>
+    <row r="509" ht="12.0" customHeight="1"/>
+    <row r="510" ht="12.0" customHeight="1"/>
+    <row r="511" ht="12.0" customHeight="1"/>
+    <row r="512" ht="12.0" customHeight="1"/>
+    <row r="513" ht="12.0" customHeight="1"/>
+    <row r="514" ht="12.0" customHeight="1"/>
+    <row r="515" ht="12.0" customHeight="1"/>
+    <row r="516" ht="12.0" customHeight="1"/>
+    <row r="517" ht="12.0" customHeight="1"/>
+    <row r="518" ht="12.0" customHeight="1"/>
+    <row r="519" ht="12.0" customHeight="1"/>
+    <row r="520" ht="12.0" customHeight="1"/>
+    <row r="521" ht="12.0" customHeight="1"/>
+    <row r="522" ht="12.0" customHeight="1"/>
+    <row r="523" ht="12.0" customHeight="1"/>
+    <row r="524" ht="12.0" customHeight="1"/>
+    <row r="525" ht="12.0" customHeight="1"/>
+    <row r="526" ht="12.0" customHeight="1"/>
+    <row r="527" ht="12.0" customHeight="1"/>
+    <row r="528" ht="12.0" customHeight="1"/>
+    <row r="529" ht="12.0" customHeight="1"/>
+    <row r="530" ht="12.0" customHeight="1"/>
+    <row r="531" ht="12.0" customHeight="1"/>
+    <row r="532" ht="12.0" customHeight="1"/>
+    <row r="533" ht="12.0" customHeight="1"/>
+    <row r="534" ht="12.0" customHeight="1"/>
+    <row r="535" ht="12.0" customHeight="1"/>
+    <row r="536" ht="12.0" customHeight="1"/>
+    <row r="537" ht="12.0" customHeight="1"/>
+    <row r="538" ht="12.0" customHeight="1"/>
+    <row r="539" ht="12.0" customHeight="1"/>
+    <row r="540" ht="12.0" customHeight="1"/>
+    <row r="541" ht="12.0" customHeight="1"/>
+    <row r="542" ht="12.0" customHeight="1"/>
+    <row r="543" ht="12.0" customHeight="1"/>
+    <row r="544" ht="12.0" customHeight="1"/>
+    <row r="545" ht="12.0" customHeight="1"/>
+    <row r="546" ht="12.0" customHeight="1"/>
+    <row r="547" ht="12.0" customHeight="1"/>
+    <row r="548" ht="12.0" customHeight="1"/>
+    <row r="549" ht="12.0" customHeight="1"/>
+    <row r="550" ht="12.0" customHeight="1"/>
+    <row r="551" ht="12.0" customHeight="1"/>
+    <row r="552" ht="12.0" customHeight="1"/>
+    <row r="553" ht="12.0" customHeight="1"/>
+    <row r="554" ht="12.0" customHeight="1"/>
+    <row r="555" ht="12.0" customHeight="1"/>
+    <row r="556" ht="12.0" customHeight="1"/>
+    <row r="557" ht="12.0" customHeight="1"/>
+    <row r="558" ht="12.0" customHeight="1"/>
+    <row r="559" ht="12.0" customHeight="1"/>
+    <row r="560" ht="12.0" customHeight="1"/>
+    <row r="561" ht="12.0" customHeight="1"/>
+    <row r="562" ht="12.0" customHeight="1"/>
+    <row r="563" ht="12.0" customHeight="1"/>
+    <row r="564" ht="12.0" customHeight="1"/>
+    <row r="565" ht="12.0" customHeight="1"/>
+    <row r="566" ht="12.0" customHeight="1"/>
+    <row r="567" ht="12.0" customHeight="1"/>
+    <row r="568" ht="12.0" customHeight="1"/>
+    <row r="569" ht="12.0" customHeight="1"/>
+    <row r="570" ht="12.0" customHeight="1"/>
+    <row r="571" ht="12.0" customHeight="1"/>
+    <row r="572" ht="12.0" customHeight="1"/>
+    <row r="573" ht="12.0" customHeight="1"/>
+    <row r="574" ht="12.0" customHeight="1"/>
+    <row r="575" ht="12.0" customHeight="1"/>
+    <row r="576" ht="12.0" customHeight="1"/>
+    <row r="577" ht="12.0" customHeight="1"/>
+    <row r="578" ht="12.0" customHeight="1"/>
+    <row r="579" ht="12.0" customHeight="1"/>
+    <row r="580" ht="12.0" customHeight="1"/>
+    <row r="581" ht="12.0" customHeight="1"/>
+    <row r="582" ht="12.0" customHeight="1"/>
+    <row r="583" ht="12.0" customHeight="1"/>
+    <row r="584" ht="12.0" customHeight="1"/>
+    <row r="585" ht="12.0" customHeight="1"/>
+    <row r="586" ht="12.0" customHeight="1"/>
+    <row r="587" ht="12.0" customHeight="1"/>
+    <row r="588" ht="12.0" customHeight="1"/>
+    <row r="589" ht="12.0" customHeight="1"/>
+    <row r="590" ht="12.0" customHeight="1"/>
+    <row r="591" ht="12.0" customHeight="1"/>
+    <row r="592" ht="12.0" customHeight="1"/>
+    <row r="593" ht="12.0" customHeight="1"/>
+    <row r="594" ht="12.0" customHeight="1"/>
+    <row r="595" ht="12.0" customHeight="1"/>
+    <row r="596" ht="12.0" customHeight="1"/>
+    <row r="597" ht="12.0" customHeight="1"/>
+    <row r="598" ht="12.0" customHeight="1"/>
+    <row r="599" ht="12.0" customHeight="1"/>
+    <row r="600" ht="12.0" customHeight="1"/>
+    <row r="601" ht="12.0" customHeight="1"/>
+    <row r="602" ht="12.0" customHeight="1"/>
+    <row r="603" ht="12.0" customHeight="1"/>
+    <row r="604" ht="12.0" customHeight="1"/>
+    <row r="605" ht="12.0" customHeight="1"/>
+    <row r="606" ht="12.0" customHeight="1"/>
+    <row r="607" ht="12.0" customHeight="1"/>
+    <row r="608" ht="12.0" customHeight="1"/>
+    <row r="609" ht="12.0" customHeight="1"/>
+    <row r="610" ht="12.0" customHeight="1"/>
+    <row r="611" ht="12.0" customHeight="1"/>
+    <row r="612" ht="12.0" customHeight="1"/>
+    <row r="613" ht="12.0" customHeight="1"/>
+    <row r="614" ht="12.0" customHeight="1"/>
+    <row r="615" ht="12.0" customHeight="1"/>
+    <row r="616" ht="12.0" customHeight="1"/>
+    <row r="617" ht="12.0" customHeight="1"/>
+    <row r="618" ht="12.0" customHeight="1"/>
+    <row r="619" ht="12.0" customHeight="1"/>
+    <row r="620" ht="12.0" customHeight="1"/>
+    <row r="621" ht="12.0" customHeight="1"/>
+    <row r="622" ht="12.0" customHeight="1"/>
+    <row r="623" ht="12.0" customHeight="1"/>
+    <row r="624" ht="12.0" customHeight="1"/>
+    <row r="625" ht="12.0" customHeight="1"/>
+    <row r="626" ht="12.0" customHeight="1"/>
+    <row r="627" ht="12.0" customHeight="1"/>
+    <row r="628" ht="12.0" customHeight="1"/>
+    <row r="629" ht="12.0" customHeight="1"/>
+    <row r="630" ht="12.0" customHeight="1"/>
+    <row r="631" ht="12.0" customHeight="1"/>
+    <row r="632" ht="12.0" customHeight="1"/>
+    <row r="633" ht="12.0" customHeight="1"/>
+    <row r="634" ht="12.0" customHeight="1"/>
+    <row r="635" ht="12.0" customHeight="1"/>
+    <row r="636" ht="12.0" customHeight="1"/>
+    <row r="637" ht="12.0" customHeight="1"/>
+    <row r="638" ht="12.0" customHeight="1"/>
+    <row r="639" ht="12.0" customHeight="1"/>
+    <row r="640" ht="12.0" customHeight="1"/>
+    <row r="641" ht="12.0" customHeight="1"/>
+    <row r="642" ht="12.0" customHeight="1"/>
+    <row r="643" ht="12.0" customHeight="1"/>
+    <row r="644" ht="12.0" customHeight="1"/>
+    <row r="645" ht="12.0" customHeight="1"/>
+    <row r="646" ht="12.0" customHeight="1"/>
+    <row r="647" ht="12.0" customHeight="1"/>
+    <row r="648" ht="12.0" customHeight="1"/>
+    <row r="649" ht="12.0" customHeight="1"/>
+    <row r="650" ht="12.0" customHeight="1"/>
+    <row r="651" ht="12.0" customHeight="1"/>
+    <row r="652" ht="12.0" customHeight="1"/>
+    <row r="653" ht="12.0" customHeight="1"/>
+    <row r="654" ht="12.0" customHeight="1"/>
+    <row r="655" ht="12.0" customHeight="1"/>
+    <row r="656" ht="12.0" customHeight="1"/>
+    <row r="657" ht="12.0" customHeight="1"/>
+    <row r="658" ht="12.0" customHeight="1"/>
+    <row r="659" ht="12.0" customHeight="1"/>
+    <row r="660" ht="12.0" customHeight="1"/>
+    <row r="661" ht="12.0" customHeight="1"/>
+    <row r="662" ht="12.0" customHeight="1"/>
+    <row r="663" ht="12.0" customHeight="1"/>
+    <row r="664" ht="12.0" customHeight="1"/>
+    <row r="665" ht="12.0" customHeight="1"/>
+    <row r="666" ht="12.0" customHeight="1"/>
+    <row r="667" ht="12.0" customHeight="1"/>
+    <row r="668" ht="12.0" customHeight="1"/>
+    <row r="669" ht="12.0" customHeight="1"/>
+    <row r="670" ht="12.0" customHeight="1"/>
+    <row r="671" ht="12.0" customHeight="1"/>
+    <row r="672" ht="12.0" customHeight="1"/>
+    <row r="673" ht="12.0" customHeight="1"/>
+    <row r="674" ht="12.0" customHeight="1"/>
+    <row r="675" ht="12.0" customHeight="1"/>
+    <row r="676" ht="12.0" customHeight="1"/>
+    <row r="677" ht="12.0" customHeight="1"/>
+    <row r="678" ht="12.0" customHeight="1"/>
+    <row r="679" ht="12.0" customHeight="1"/>
+    <row r="680" ht="12.0" customHeight="1"/>
+    <row r="681" ht="12.0" customHeight="1"/>
+    <row r="682" ht="12.0" customHeight="1"/>
+    <row r="683" ht="12.0" customHeight="1"/>
+    <row r="684" ht="12.0" customHeight="1"/>
+    <row r="685" ht="12.0" customHeight="1"/>
+    <row r="686" ht="12.0" customHeight="1"/>
+    <row r="687" ht="12.0" customHeight="1"/>
+    <row r="688" ht="12.0" customHeight="1"/>
+    <row r="689" ht="12.0" customHeight="1"/>
+    <row r="690" ht="12.0" customHeight="1"/>
+    <row r="691" ht="12.0" customHeight="1"/>
+    <row r="692" ht="12.0" customHeight="1"/>
+    <row r="693" ht="12.0" customHeight="1"/>
+    <row r="694" ht="12.0" customHeight="1"/>
+    <row r="695" ht="12.0" customHeight="1"/>
+    <row r="696" ht="12.0" customHeight="1"/>
+    <row r="697" ht="12.0" customHeight="1"/>
+    <row r="698" ht="12.0" customHeight="1"/>
+    <row r="699" ht="12.0" customHeight="1"/>
+    <row r="700" ht="12.0" customHeight="1"/>
+    <row r="701" ht="12.0" customHeight="1"/>
+    <row r="702" ht="12.0" customHeight="1"/>
+    <row r="703" ht="12.0" customHeight="1"/>
+    <row r="704" ht="12.0" customHeight="1"/>
+    <row r="705" ht="12.0" customHeight="1"/>
+    <row r="706" ht="12.0" customHeight="1"/>
+    <row r="707" ht="12.0" customHeight="1"/>
+    <row r="708" ht="12.0" customHeight="1"/>
+    <row r="709" ht="12.0" customHeight="1"/>
+    <row r="710" ht="12.0" customHeight="1"/>
+    <row r="711" ht="12.0" customHeight="1"/>
+    <row r="712" ht="12.0" customHeight="1"/>
+    <row r="713" ht="12.0" customHeight="1"/>
+    <row r="714" ht="12.0" customHeight="1"/>
+    <row r="715" ht="12.0" customHeight="1"/>
+    <row r="716" ht="12.0" customHeight="1"/>
+    <row r="717" ht="12.0" customHeight="1"/>
+    <row r="718" ht="12.0" customHeight="1"/>
+    <row r="719" ht="12.0" customHeight="1"/>
+    <row r="720" ht="12.0" customHeight="1"/>
+    <row r="721" ht="12.0" customHeight="1"/>
+    <row r="722" ht="12.0" customHeight="1"/>
+    <row r="723" ht="12.0" customHeight="1"/>
+    <row r="724" ht="12.0" customHeight="1"/>
+    <row r="725" ht="12.0" customHeight="1"/>
+    <row r="726" ht="12.0" customHeight="1"/>
+    <row r="727" ht="12.0" customHeight="1"/>
+    <row r="728" ht="12.0" customHeight="1"/>
+    <row r="729" ht="12.0" customHeight="1"/>
+    <row r="730" ht="12.0" customHeight="1"/>
+    <row r="731" ht="12.0" customHeight="1"/>
+    <row r="732" ht="12.0" customHeight="1"/>
+    <row r="733" ht="12.0" customHeight="1"/>
+    <row r="734" ht="12.0" customHeight="1"/>
+    <row r="735" ht="12.0" customHeight="1"/>
+    <row r="736" ht="12.0" customHeight="1"/>
+    <row r="737" ht="12.0" customHeight="1"/>
+    <row r="738" ht="12.0" customHeight="1"/>
+    <row r="739" ht="12.0" customHeight="1"/>
+    <row r="740" ht="12.0" customHeight="1"/>
+    <row r="741" ht="12.0" customHeight="1"/>
+    <row r="742" ht="12.0" customHeight="1"/>
+    <row r="743" ht="12.0" customHeight="1"/>
+    <row r="744" ht="12.0" customHeight="1"/>
+    <row r="745" ht="12.0" customHeight="1"/>
+    <row r="746" ht="12.0" customHeight="1"/>
+    <row r="747" ht="12.0" customHeight="1"/>
+    <row r="748" ht="12.0" customHeight="1"/>
+    <row r="749" ht="12.0" customHeight="1"/>
+    <row r="750" ht="12.0" customHeight="1"/>
+    <row r="751" ht="12.0" customHeight="1"/>
+    <row r="752" ht="12.0" customHeight="1"/>
+    <row r="753" ht="12.0" customHeight="1"/>
+    <row r="754" ht="12.0" customHeight="1"/>
+    <row r="755" ht="12.0" customHeight="1"/>
+    <row r="756" ht="12.0" customHeight="1"/>
+    <row r="757" ht="12.0" customHeight="1"/>
+    <row r="758" ht="12.0" customHeight="1"/>
+    <row r="759" ht="12.0" customHeight="1"/>
+    <row r="760" ht="12.0" customHeight="1"/>
+    <row r="761" ht="12.0" customHeight="1"/>
+    <row r="762" ht="12.0" customHeight="1"/>
+    <row r="763" ht="12.0" customHeight="1"/>
+    <row r="764" ht="12.0" customHeight="1"/>
+    <row r="765" ht="12.0" customHeight="1"/>
+    <row r="766" ht="12.0" customHeight="1"/>
+    <row r="767" ht="12.0" customHeight="1"/>
+    <row r="768" ht="12.0" customHeight="1"/>
+    <row r="769" ht="12.0" customHeight="1"/>
+    <row r="770" ht="12.0" customHeight="1"/>
+    <row r="771" ht="12.0" customHeight="1"/>
+    <row r="772" ht="12.0" customHeight="1"/>
+    <row r="773" ht="12.0" customHeight="1"/>
+    <row r="774" ht="12.0" customHeight="1"/>
+    <row r="775" ht="12.0" customHeight="1"/>
+    <row r="776" ht="12.0" customHeight="1"/>
+    <row r="777" ht="12.0" customHeight="1"/>
+    <row r="778" ht="12.0" customHeight="1"/>
+    <row r="779" ht="12.0" customHeight="1"/>
+    <row r="780" ht="12.0" customHeight="1"/>
+    <row r="781" ht="12.0" customHeight="1"/>
+    <row r="782" ht="12.0" customHeight="1"/>
+    <row r="783" ht="12.0" customHeight="1"/>
+    <row r="784" ht="12.0" customHeight="1"/>
+    <row r="785" ht="12.0" customHeight="1"/>
+    <row r="786" ht="12.0" customHeight="1"/>
+    <row r="787" ht="12.0" customHeight="1"/>
+    <row r="788" ht="12.0" customHeight="1"/>
+    <row r="789" ht="12.0" customHeight="1"/>
+    <row r="790" ht="12.0" customHeight="1"/>
+    <row r="791" ht="12.0" customHeight="1"/>
+    <row r="792" ht="12.0" customHeight="1"/>
+    <row r="793" ht="12.0" customHeight="1"/>
+    <row r="794" ht="12.0" customHeight="1"/>
+    <row r="795" ht="12.0" customHeight="1"/>
+    <row r="796" ht="12.0" customHeight="1"/>
+    <row r="797" ht="12.0" customHeight="1"/>
+    <row r="798" ht="12.0" customHeight="1"/>
+    <row r="799" ht="12.0" customHeight="1"/>
+    <row r="800" ht="12.0" customHeight="1"/>
+    <row r="801" ht="12.0" customHeight="1"/>
+    <row r="802" ht="12.0" customHeight="1"/>
+    <row r="803" ht="12.0" customHeight="1"/>
+    <row r="804" ht="12.0" customHeight="1"/>
+    <row r="805" ht="12.0" customHeight="1"/>
+    <row r="806" ht="12.0" customHeight="1"/>
+    <row r="807" ht="12.0" customHeight="1"/>
+    <row r="808" ht="12.0" customHeight="1"/>
+    <row r="809" ht="12.0" customHeight="1"/>
+    <row r="810" ht="12.0" customHeight="1"/>
+    <row r="811" ht="12.0" customHeight="1"/>
+    <row r="812" ht="12.0" customHeight="1"/>
+    <row r="813" ht="12.0" customHeight="1"/>
+    <row r="814" ht="12.0" customHeight="1"/>
+    <row r="815" ht="12.0" customHeight="1"/>
+    <row r="816" ht="12.0" customHeight="1"/>
+    <row r="817" ht="12.0" customHeight="1"/>
+    <row r="818" ht="12.0" customHeight="1"/>
+    <row r="819" ht="12.0" customHeight="1"/>
+    <row r="820" ht="12.0" customHeight="1"/>
+    <row r="821" ht="12.0" customHeight="1"/>
+    <row r="822" ht="12.0" customHeight="1"/>
+    <row r="823" ht="12.0" customHeight="1"/>
+    <row r="824" ht="12.0" customHeight="1"/>
+    <row r="825" ht="12.0" customHeight="1"/>
+    <row r="826" ht="12.0" customHeight="1"/>
+    <row r="827" ht="12.0" customHeight="1"/>
+    <row r="828" ht="12.0" customHeight="1"/>
+    <row r="829" ht="12.0" customHeight="1"/>
+    <row r="830" ht="12.0" customHeight="1"/>
+    <row r="831" ht="12.0" customHeight="1"/>
+    <row r="832" ht="12.0" customHeight="1"/>
+    <row r="833" ht="12.0" customHeight="1"/>
+    <row r="834" ht="12.0" customHeight="1"/>
+    <row r="835" ht="12.0" customHeight="1"/>
+    <row r="836" ht="12.0" customHeight="1"/>
+    <row r="837" ht="12.0" customHeight="1"/>
+    <row r="838" ht="12.0" customHeight="1"/>
+    <row r="839" ht="12.0" customHeight="1"/>
+    <row r="840" ht="12.0" customHeight="1"/>
+    <row r="841" ht="12.0" customHeight="1"/>
+    <row r="842" ht="12.0" customHeight="1"/>
+    <row r="843" ht="12.0" customHeight="1"/>
+    <row r="844" ht="12.0" customHeight="1"/>
+    <row r="845" ht="12.0" customHeight="1"/>
+    <row r="846" ht="12.0" customHeight="1"/>
+    <row r="847" ht="12.0" customHeight="1"/>
+    <row r="848" ht="12.0" customHeight="1"/>
+    <row r="849" ht="12.0" customHeight="1"/>
+    <row r="850" ht="12.0" customHeight="1"/>
+    <row r="851" ht="12.0" customHeight="1"/>
+    <row r="852" ht="12.0" customHeight="1"/>
+    <row r="853" ht="12.0" customHeight="1"/>
+    <row r="854" ht="12.0" customHeight="1"/>
+    <row r="855" ht="12.0" customHeight="1"/>
+    <row r="856" ht="12.0" customHeight="1"/>
+    <row r="857" ht="12.0" customHeight="1"/>
+    <row r="858" ht="12.0" customHeight="1"/>
+    <row r="859" ht="12.0" customHeight="1"/>
+    <row r="860" ht="12.0" customHeight="1"/>
+    <row r="861" ht="12.0" customHeight="1"/>
+    <row r="862" ht="12.0" customHeight="1"/>
+    <row r="863" ht="12.0" customHeight="1"/>
+    <row r="864" ht="12.0" customHeight="1"/>
+    <row r="865" ht="12.0" customHeight="1"/>
+    <row r="866" ht="12.0" customHeight="1"/>
+    <row r="867" ht="12.0" customHeight="1"/>
+    <row r="868" ht="12.0" customHeight="1"/>
+    <row r="869" ht="12.0" customHeight="1"/>
+    <row r="870" ht="12.0" customHeight="1"/>
+    <row r="871" ht="12.0" customHeight="1"/>
+    <row r="872" ht="12.0" customHeight="1"/>
+    <row r="873" ht="12.0" customHeight="1"/>
+    <row r="874" ht="12.0" customHeight="1"/>
+    <row r="875" ht="12.0" customHeight="1"/>
+    <row r="876" ht="12.0" customHeight="1"/>
+    <row r="877" ht="12.0" customHeight="1"/>
+    <row r="878" ht="12.0" customHeight="1"/>
+    <row r="879" ht="12.0" customHeight="1"/>
+    <row r="880" ht="12.0" customHeight="1"/>
+    <row r="881" ht="12.0" customHeight="1"/>
+    <row r="882" ht="12.0" customHeight="1"/>
+    <row r="883" ht="12.0" customHeight="1"/>
+    <row r="884" ht="12.0" customHeight="1"/>
+    <row r="885" ht="12.0" customHeight="1"/>
+    <row r="886" ht="12.0" customHeight="1"/>
+    <row r="887" ht="12.0" customHeight="1"/>
+    <row r="888" ht="12.0" customHeight="1"/>
+    <row r="889" ht="12.0" customHeight="1"/>
+    <row r="890" ht="12.0" customHeight="1"/>
+    <row r="891" ht="12.0" customHeight="1"/>
+    <row r="892" ht="12.0" customHeight="1"/>
+    <row r="893" ht="12.0" customHeight="1"/>
+    <row r="894" ht="12.0" customHeight="1"/>
+    <row r="895" ht="12.0" customHeight="1"/>
+    <row r="896" ht="12.0" customHeight="1"/>
+    <row r="897" ht="12.0" customHeight="1"/>
+    <row r="898" ht="12.0" customHeight="1"/>
+    <row r="899" ht="12.0" customHeight="1"/>
+    <row r="900" ht="12.0" customHeight="1"/>
+    <row r="901" ht="12.0" customHeight="1"/>
+    <row r="902" ht="12.0" customHeight="1"/>
+    <row r="903" ht="12.0" customHeight="1"/>
+    <row r="904" ht="12.0" customHeight="1"/>
+    <row r="905" ht="12.0" customHeight="1"/>
+    <row r="906" ht="12.0" customHeight="1"/>
+    <row r="907" ht="12.0" customHeight="1"/>
+    <row r="908" ht="12.0" customHeight="1"/>
+    <row r="909" ht="12.0" customHeight="1"/>
+    <row r="910" ht="12.0" customHeight="1"/>
+    <row r="911" ht="12.0" customHeight="1"/>
+    <row r="912" ht="12.0" customHeight="1"/>
+    <row r="913" ht="12.0" customHeight="1"/>
+    <row r="914" ht="12.0" customHeight="1"/>
+    <row r="915" ht="12.0" customHeight="1"/>
+    <row r="916" ht="12.0" customHeight="1"/>
+    <row r="917" ht="12.0" customHeight="1"/>
+    <row r="918" ht="12.0" customHeight="1"/>
+    <row r="919" ht="12.0" customHeight="1"/>
+    <row r="920" ht="12.0" customHeight="1"/>
+    <row r="921" ht="12.0" customHeight="1"/>
+    <row r="922" ht="12.0" customHeight="1"/>
+    <row r="923" ht="12.0" customHeight="1"/>
+    <row r="924" ht="12.0" customHeight="1"/>
+    <row r="925" ht="12.0" customHeight="1"/>
+    <row r="926" ht="12.0" customHeight="1"/>
+    <row r="927" ht="12.0" customHeight="1"/>
+    <row r="928" ht="12.0" customHeight="1"/>
+    <row r="929" ht="12.0" customHeight="1"/>
+    <row r="930" ht="12.0" customHeight="1"/>
+    <row r="931" ht="12.0" customHeight="1"/>
+    <row r="932" ht="12.0" customHeight="1"/>
+    <row r="933" ht="12.0" customHeight="1"/>
+    <row r="934" ht="12.0" customHeight="1"/>
+    <row r="935" ht="12.0" customHeight="1"/>
+    <row r="936" ht="12.0" customHeight="1"/>
+    <row r="937" ht="12.0" customHeight="1"/>
+    <row r="938" ht="12.0" customHeight="1"/>
+    <row r="939" ht="12.0" customHeight="1"/>
+    <row r="940" ht="12.0" customHeight="1"/>
+    <row r="941" ht="12.0" customHeight="1"/>
+    <row r="942" ht="12.0" customHeight="1"/>
+    <row r="943" ht="12.0" customHeight="1"/>
+    <row r="944" ht="12.0" customHeight="1"/>
+    <row r="945" ht="12.0" customHeight="1"/>
+    <row r="946" ht="12.0" customHeight="1"/>
+    <row r="947" ht="12.0" customHeight="1"/>
+    <row r="948" ht="12.0" customHeight="1"/>
+    <row r="949" ht="12.0" customHeight="1"/>
+    <row r="950" ht="12.0" customHeight="1"/>
+    <row r="951" ht="12.0" customHeight="1"/>
+    <row r="952" ht="12.0" customHeight="1"/>
+    <row r="953" ht="12.0" customHeight="1"/>
+    <row r="954" ht="12.0" customHeight="1"/>
+    <row r="955" ht="12.0" customHeight="1"/>
+    <row r="956" ht="12.0" customHeight="1"/>
+    <row r="957" ht="12.0" customHeight="1"/>
+    <row r="958" ht="12.0" customHeight="1"/>
+    <row r="959" ht="12.0" customHeight="1"/>
+    <row r="960" ht="12.0" customHeight="1"/>
+    <row r="961" ht="12.0" customHeight="1"/>
+    <row r="962" ht="12.0" customHeight="1"/>
+    <row r="963" ht="12.0" customHeight="1"/>
+    <row r="964" ht="12.0" customHeight="1"/>
+    <row r="965" ht="12.0" customHeight="1"/>
+    <row r="966" ht="12.0" customHeight="1"/>
+    <row r="967" ht="12.0" customHeight="1"/>
+    <row r="968" ht="12.0" customHeight="1"/>
+    <row r="969" ht="12.0" customHeight="1"/>
+    <row r="970" ht="12.0" customHeight="1"/>
+    <row r="971" ht="12.0" customHeight="1"/>
+    <row r="972" ht="12.0" customHeight="1"/>
+    <row r="973" ht="12.0" customHeight="1"/>
+    <row r="974" ht="12.0" customHeight="1"/>
+    <row r="975" ht="12.0" customHeight="1"/>
+    <row r="976" ht="12.0" customHeight="1"/>
+    <row r="977" ht="12.0" customHeight="1"/>
+    <row r="978" ht="12.0" customHeight="1"/>
+    <row r="979" ht="12.0" customHeight="1"/>
+    <row r="980" ht="12.0" customHeight="1"/>
+    <row r="981" ht="12.0" customHeight="1"/>
+    <row r="982" ht="12.0" customHeight="1"/>
+    <row r="983" ht="12.0" customHeight="1"/>
+    <row r="984" ht="12.0" customHeight="1"/>
+    <row r="985" ht="12.0" customHeight="1"/>
+    <row r="986" ht="12.0" customHeight="1"/>
+    <row r="987" ht="12.0" customHeight="1"/>
+    <row r="988" ht="12.0" customHeight="1"/>
+    <row r="989" ht="12.0" customHeight="1"/>
+    <row r="990" ht="12.0" customHeight="1"/>
+    <row r="991" ht="12.0" customHeight="1"/>
+    <row r="992" ht="12.0" customHeight="1"/>
+    <row r="993" ht="12.0" customHeight="1"/>
+    <row r="994" ht="12.0" customHeight="1"/>
+    <row r="995" ht="12.0" customHeight="1"/>
+    <row r="996" ht="12.0" customHeight="1"/>
+    <row r="997" ht="12.0" customHeight="1"/>
+    <row r="998" ht="12.0" customHeight="1"/>
+    <row r="999" ht="12.0" customHeight="1"/>
+    <row r="1000" ht="12.0" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.88"/>
+    <col customWidth="1" min="2" max="2" width="19.38"/>
+    <col customWidth="1" min="3" max="3" width="18.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\Hackathon\LMS_UI_Hackathon_Oct24\Team4_SeleniumSquad_LMSUI\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasaddige/git/Team4_SeleniumSquad_LMSUI/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468567F4-6279-401E-9E46-CA8D34C15BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA828563-B6A5-EC43-97C6-5D5FF2D36DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8180" yWindow="5260" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Class" sheetId="2" r:id="rId2"/>
+    <sheet name="Batch" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>testcase</t>
   </si>
@@ -103,13 +103,82 @@
   </si>
   <si>
     <t>Oracle</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>BatchName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>NumberOfClasses</t>
+  </si>
+  <si>
+    <t>TeamFourSDET</t>
+  </si>
+  <si>
+    <t>InvalidBatchName</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>ValidProgramName</t>
+  </si>
+  <si>
+    <t>InvalidBatchNamePrefix</t>
+  </si>
+  <si>
+    <t>BatchNamePrefix</t>
+  </si>
+  <si>
+    <t>My Test Batch</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>MissingDesc</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>Batch Description is required.</t>
+  </si>
+  <si>
+    <t>MissingBatchName</t>
+  </si>
+  <si>
+    <t>MissingStatus</t>
+  </si>
+  <si>
+    <t>MissingNoOfClass</t>
+  </si>
+  <si>
+    <t>Batch Name is required.</t>
+  </si>
+  <si>
+    <t>Number of classes is required.</t>
+  </si>
+  <si>
+    <t>Status is required.</t>
+  </si>
+  <si>
+    <t>MissingProgram</t>
+  </si>
+  <si>
+    <t>Program Name is required.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -120,6 +189,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,6 +197,14 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -151,10 +229,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -380,12 +462,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,7 +478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -407,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -430,13 +512,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F31D4-4607-44BA-AE04-13824B74BD83}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -479,14 +561,227 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA8DFBA-1049-A04F-923A-74AB7171B6C6}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>1234</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>12345</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="D7">
+        <v>1234</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>1234</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>1212</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>1234</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\Hackathon\LMS_UI_Hackathon_Oct24\Team4_SeleniumSquad_LMSUI\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468567F4-6279-401E-9E46-CA8D34C15BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA36F2A-B559-4B53-8DF2-C845187ADA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>testcase</t>
   </si>
@@ -99,17 +99,59 @@
     <t>validInputMandatory</t>
   </si>
   <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>Oracle</t>
+    <t>11/26/2024,11/27/2024</t>
+  </si>
+  <si>
+    <t>Urmila Rao</t>
+  </si>
+  <si>
+    <t>Micro service-01</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>API01</t>
+  </si>
+  <si>
+    <t>InvalidInputMandatory</t>
+  </si>
+  <si>
+    <t>ExpectedMsg</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t>11/20/2024, 11/22/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postman API </t>
+  </si>
+  <si>
+    <t>Postman Classes</t>
+  </si>
+  <si>
+    <t>Install Postamn tool</t>
+  </si>
+  <si>
+    <t>zoom</t>
+  </si>
+  <si>
+    <t>SMPO-0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -127,6 +169,13 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -151,10 +200,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -428,15 +479,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F31D4-4607-44BA-AE04-13824B74BD83}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +500,7 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
@@ -461,32 +515,89 @@
       <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45209</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -1,40 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\Hackathon\LMS_UI_Hackathon_Oct24\Team4_SeleniumSquad_LMSUI\src\test\resources\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468567F4-6279-401E-9E46-CA8D34C15BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0665B8D5-9944-447D-9336-AA631EE748A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Class" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>testcase</t>
   </si>
@@ -103,6 +86,12 @@
   </si>
   <si>
     <t>Oracle</t>
+  </si>
+  <si>
+    <t>InvalidUserName</t>
+  </si>
+  <si>
+    <t>InvalidPass</t>
   </si>
 </sst>
 </file>
@@ -374,10 +363,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -400,7 +389,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -418,9 +407,27 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{C029B5E5-F3C9-4D25-B852-132970CAF380}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{E6E4CBB0-8C2B-4DC3-9301-264D024FF920}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{99725CC4-5239-44CF-A661-3FAE40FC1D61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -430,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F31D4-4607-44BA-AE04-13824B74BD83}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasaddige/git/Team4_SeleniumSquad_LMSUI/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA828563-B6A5-EC43-97C6-5D5FF2D36DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8657298B-A496-1A4A-B181-D25704525F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8180" yWindow="5260" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>NumberOfClasses</t>
   </si>
   <si>
-    <t>TeamFourSDET</t>
-  </si>
-  <si>
     <t>InvalidBatchName</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Program Name is required.</t>
+  </si>
+  <si>
+    <t>TeamFourSDETOne</t>
   </si>
 </sst>
 </file>
@@ -581,13 +581,13 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
@@ -602,7 +602,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>24</v>
@@ -617,7 +617,7 @@
         <v>26</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -630,16 +630,16 @@
         <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>1234</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -647,36 +647,36 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>12345</v>
+        <v>1212</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -684,104 +684,104 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3"/>
       <c r="D7">
-        <v>1234</v>
+        <v>1212</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>1234</v>
+        <v>1212</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>1212</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>1234</v>
+        <v>1212</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="H11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasaddige/git/Team4_SeleniumSquad_LMSUI/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8657298B-A496-1A4A-B181-D25704525F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10229E9E-B202-6448-8AE4-C61D7F734102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="5260" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11140" yWindow="7100" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>testcase</t>
   </si>
@@ -172,6 +172,21 @@
   </si>
   <si>
     <t>TeamFourSDETOne</t>
+  </si>
+  <si>
+    <t>This field should start with an alphabet and min 2 character.</t>
+  </si>
+  <si>
+    <t>InvalidDescriptionEdit</t>
+  </si>
+  <si>
+    <t>ValidEdit</t>
+  </si>
+  <si>
+    <t>ValidSearch</t>
+  </si>
+  <si>
+    <t>TeamFourSDETOne1234</t>
   </si>
 </sst>
 </file>
@@ -578,10 +593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA8DFBA-1049-A04F-923A-74AB7171B6C6}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -589,6 +604,7 @@
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="41.6640625" customWidth="1"/>
@@ -784,6 +800,43 @@
         <v>41</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12">
+        <v>1123</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\Hackathon\LMS_UI_Hackathon_Oct24\Team4_SeleniumSquad_LMSUI\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA36F2A-B559-4B53-8DF2-C845187ADA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CE840C-6CC1-4CAF-A46F-A22E893BF79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>testcase</t>
   </si>
@@ -54,15 +54,6 @@
     <t>LmsHackathon@2024</t>
   </si>
   <si>
-    <t>InvalidCredentials</t>
-  </si>
-  <si>
-    <t>jjkjhhkj</t>
-  </si>
-  <si>
-    <t>hgjhgjh</t>
-  </si>
-  <si>
     <t>Batchname</t>
   </si>
   <si>
@@ -117,6 +108,9 @@
     <t>InvalidInputMandatory</t>
   </si>
   <si>
+    <t>SDET</t>
+  </si>
+  <si>
     <t>ExpectedMsg</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>Postman</t>
-  </si>
-  <si>
     <t>11/20/2024, 11/22/2024</t>
   </si>
   <si>
@@ -145,6 +136,18 @@
   </si>
   <si>
     <t>SMPO-0001</t>
+  </si>
+  <si>
+    <t>Postman01</t>
+  </si>
+  <si>
+    <t>optionalInput</t>
+  </si>
+  <si>
+    <t>Testing Class</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -459,15 +462,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -479,10 +476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F31D4-4607-44BA-AE04-13824B74BD83}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -495,109 +492,126 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3">
         <v>45209</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>testcase</t>
   </si>
@@ -93,38 +93,86 @@
     <t>ProgramStatus</t>
   </si>
   <si>
-    <t>MSFinance</t>
+    <t>ValidInputAllOne</t>
+  </si>
+  <si>
+    <t>poland</t>
+  </si>
+  <si>
+    <t>for other modules</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>ValidInputAllTwo</t>
+  </si>
+  <si>
+    <t>africa</t>
+  </si>
+  <si>
+    <t>to edit and delete</t>
+  </si>
+  <si>
+    <t>ValidInputThree</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>multi delete</t>
+  </si>
+  <si>
+    <t>ValidInputFour</t>
+  </si>
+  <si>
+    <t>canada</t>
+  </si>
+  <si>
+    <t>extra one</t>
+  </si>
+  <si>
+    <t>BlankProgramName</t>
   </si>
   <si>
     <t>undergrad</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>BlankProgramName</t>
-  </si>
-  <si>
-    <t>inactive</t>
-  </si>
-  <si>
     <t>InvalidProgramName</t>
   </si>
   <si>
-    <t>MSFinance-</t>
+    <t>a</t>
   </si>
   <si>
     <t>BlankDescriptionName</t>
   </si>
   <si>
+    <t>randomName</t>
+  </si>
+  <si>
     <t>BlankStatus</t>
+  </si>
+  <si>
+    <t>EditProgramNameOnly</t>
+  </si>
+  <si>
+    <t>aaaaEdited</t>
+  </si>
+  <si>
+    <t>EditProgramDescOnly</t>
+  </si>
+  <si>
+    <t>knjjkd edited</t>
+  </si>
+  <si>
+    <t>EditProgramStatusOnly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -147,13 +195,23 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -171,6 +229,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2542,64 +2603,130 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
+      <c r="A2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\Hackathon\LMS_UI_Hackathon_Oct24\Team4_SeleniumSquad_LMSUI\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasaddige/git/Team4_SeleniumSquad_LMSUI/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CE840C-6CC1-4CAF-A46F-A22E893BF79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810544D6-497A-4340-AFC8-D56370158921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Class" sheetId="2" r:id="rId2"/>
+    <sheet name="Batch" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>testcase</t>
   </si>
@@ -148,6 +148,90 @@
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>BatchNamePrefix</t>
+  </si>
+  <si>
+    <t>BatchName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>NumberOfClasses</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>My Test Batch</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>InvalidBatchName</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>ValidProgramName</t>
+  </si>
+  <si>
+    <t>InvalidBatchNamePrefix</t>
+  </si>
+  <si>
+    <t>MissingProgram</t>
+  </si>
+  <si>
+    <t>Program Name is required.</t>
+  </si>
+  <si>
+    <t>MissingBatchName</t>
+  </si>
+  <si>
+    <t>Batch Name is required.</t>
+  </si>
+  <si>
+    <t>MissingStatus</t>
+  </si>
+  <si>
+    <t>Status is required.</t>
+  </si>
+  <si>
+    <t>MissingDesc</t>
+  </si>
+  <si>
+    <t>Batch Description is required.</t>
+  </si>
+  <si>
+    <t>MissingNoOfClass</t>
+  </si>
+  <si>
+    <t>Number of classes is required.</t>
+  </si>
+  <si>
+    <t>InvalidDescriptionEdit</t>
+  </si>
+  <si>
+    <t>This field should start with an alphabet and min 2 character.</t>
+  </si>
+  <si>
+    <t>ValidEdit</t>
+  </si>
+  <si>
+    <t>ValidSearch</t>
+  </si>
+  <si>
+    <t>TeamFourSDETThree</t>
+  </si>
+  <si>
+    <t>TeamFourSDETThree1234</t>
   </si>
 </sst>
 </file>
@@ -165,6 +249,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,6 +257,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,12 +289,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -434,12 +523,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -461,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -478,16 +567,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F31D4-4607-44BA-AE04-13824B74BD83}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -545,7 +634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -577,7 +666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -597,7 +686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -612,6 +701,257 @@
       </c>
       <c r="K5" s="4" t="s">
         <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644E1D-B456-124C-A5C4-6947EE9E01A8}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>1234</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>1212</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="D7">
+        <v>1212</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>1212</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>1212</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11">
+        <v>1212</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12">
+        <v>1123</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasaddige/git/Team4_SeleniumSquad_LMSUI/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810544D6-497A-4340-AFC8-D56370158921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750F6DBB-FC1B-D846-ADB1-91A6143A3282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,10 +228,10 @@
     <t>ValidSearch</t>
   </si>
   <si>
-    <t>TeamFourSDETThree</t>
-  </si>
-  <si>
-    <t>TeamFourSDETThree1234</t>
+    <t>TeamFourSDETA</t>
+  </si>
+  <si>
+    <t>TeamFourSDETA1234</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasaddige/git/Team4_SeleniumSquad_LMSUI/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750F6DBB-FC1B-D846-ADB1-91A6143A3282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AF7FB9-125A-A240-96F0-E6F6C752A3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-160" yWindow="500" windowWidth="38400" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>testcase</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>TeamFourSDETA</t>
-  </si>
-  <si>
-    <t>TeamFourSDETA1234</t>
   </si>
 </sst>
 </file>
@@ -713,7 +710,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -951,7 +948,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasaddige/git/Team4_SeleniumSquad_LMSUI/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AF7FB9-125A-A240-96F0-E6F6C752A3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641F7708-3C73-C849-81C5-49D3F8F6769D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="500" windowWidth="38400" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -565,11 +565,12 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -710,7 +711,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -8,33 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\Hackathon\LMS_UI_Hackathon_Oct24\Team4_SeleniumSquad_LMSUI\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CE840C-6CC1-4CAF-A46F-A22E893BF79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3486C5F5-22CF-439E-A95E-FBBC5E7B2833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Class" sheetId="2" r:id="rId2"/>
+    <sheet name="ClassAdd" sheetId="2" r:id="rId2"/>
+    <sheet name="Batch" sheetId="5" r:id="rId3"/>
+    <sheet name="Class" sheetId="4" r:id="rId4"/>
+    <sheet name="Program" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
   <si>
     <t>testcase</t>
   </si>
@@ -54,6 +44,15 @@
     <t>LmsHackathon@2024</t>
   </si>
   <si>
+    <t>InvalidCredentials</t>
+  </si>
+  <si>
+    <t>jjkjhhkj</t>
+  </si>
+  <si>
+    <t>hgjhgjh</t>
+  </si>
+  <si>
     <t>Batchname</t>
   </si>
   <si>
@@ -90,71 +89,341 @@
     <t>validInputMandatory</t>
   </si>
   <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>ProgramDescription</t>
+  </si>
+  <si>
+    <t>ProgramStatus</t>
+  </si>
+  <si>
+    <t>ValidInputAllOne</t>
+  </si>
+  <si>
+    <t>poland</t>
+  </si>
+  <si>
+    <t>for other modules</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>ValidInputAllTwo</t>
+  </si>
+  <si>
+    <t>africa</t>
+  </si>
+  <si>
+    <t>to edit and delete</t>
+  </si>
+  <si>
+    <t>ValidInputThree</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>multi delete</t>
+  </si>
+  <si>
+    <t>ValidInputFour</t>
+  </si>
+  <si>
+    <t>canada</t>
+  </si>
+  <si>
+    <t>extra one</t>
+  </si>
+  <si>
+    <t>BlankProgramName</t>
+  </si>
+  <si>
+    <t>undergrad</t>
+  </si>
+  <si>
+    <t>InvalidProgramName</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>BlankDescriptionName</t>
+  </si>
+  <si>
+    <t>randomName</t>
+  </si>
+  <si>
+    <t>BlankStatus</t>
+  </si>
+  <si>
+    <t>EditProgramNameOnly</t>
+  </si>
+  <si>
+    <t>aaaaEdited</t>
+  </si>
+  <si>
+    <t>EditProgramDescOnly</t>
+  </si>
+  <si>
+    <t>knjjkd edited</t>
+  </si>
+  <si>
+    <t>EditProgramStatusOnly</t>
+  </si>
+  <si>
+    <t>ExpectedMsg</t>
+  </si>
+  <si>
+    <t>Micro service-01</t>
+  </si>
+  <si>
+    <t>API01</t>
+  </si>
+  <si>
     <t>11/26/2024,11/27/2024</t>
   </si>
   <si>
     <t>Urmila Rao</t>
   </si>
   <si>
-    <t>Micro service-01</t>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>SMPO-0001</t>
+  </si>
+  <si>
+    <t>Postman01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postman API </t>
+  </si>
+  <si>
+    <t>11/20/2024, 11/22/2024</t>
+  </si>
+  <si>
+    <t>Postman Classes</t>
+  </si>
+  <si>
+    <t>Install Postamn tool</t>
+  </si>
+  <si>
+    <t>zoom</t>
+  </si>
+  <si>
+    <t>InvalidInputMandatory</t>
   </si>
   <si>
     <t>Selenium</t>
   </si>
   <si>
-    <t>API01</t>
-  </si>
-  <si>
-    <t>InvalidInputMandatory</t>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>optionalInput</t>
+  </si>
+  <si>
+    <t>Testing Class</t>
   </si>
   <si>
     <t>SDET</t>
   </si>
   <si>
-    <t>ExpectedMsg</t>
-  </si>
-  <si>
-    <t>Successful</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>11/20/2024, 11/22/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postman API </t>
-  </si>
-  <si>
-    <t>Postman Classes</t>
-  </si>
-  <si>
-    <t>Install Postamn tool</t>
-  </si>
-  <si>
-    <t>zoom</t>
-  </si>
-  <si>
-    <t>SMPO-0001</t>
-  </si>
-  <si>
-    <t>Postman01</t>
-  </si>
-  <si>
-    <t>optionalInput</t>
-  </si>
-  <si>
-    <t>Testing Class</t>
-  </si>
-  <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>batchName</t>
+  </si>
+  <si>
+    <t>classTopic</t>
+  </si>
+  <si>
+    <t>classDescription</t>
+  </si>
+  <si>
+    <t>selectClassDates</t>
+  </si>
+  <si>
+    <t>noOfClasses</t>
+  </si>
+  <si>
+    <t>staffName</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>recording</t>
+  </si>
+  <si>
+    <t>EditValidClassDescription</t>
+  </si>
+  <si>
+    <t>testingDescrip</t>
+  </si>
+  <si>
+    <t>EditValidClassDates</t>
+  </si>
+  <si>
+    <t>12/18/2024</t>
+  </si>
+  <si>
+    <t>EditValidStaffName</t>
+  </si>
+  <si>
+    <t>EditValidStatus</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>EditValidComments</t>
+  </si>
+  <si>
+    <t>testingComments</t>
+  </si>
+  <si>
+    <t>EditValidNotes</t>
+  </si>
+  <si>
+    <t>testingNotes</t>
+  </si>
+  <si>
+    <t>EditValidRecording</t>
+  </si>
+  <si>
+    <t>testingRecord</t>
+  </si>
+  <si>
+    <t>EditInvalidClassDates</t>
+  </si>
+  <si>
+    <t>jkjhkhjh</t>
+  </si>
+  <si>
+    <t>EditMandateFields</t>
+  </si>
+  <si>
+    <t>12/11/2024</t>
+  </si>
+  <si>
+    <t>EditOptionalFields</t>
+  </si>
+  <si>
+    <t>testabc</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>EditNumbersOrSpecialChar</t>
+  </si>
+  <si>
+    <t>^&amp;*^&amp;*</t>
+  </si>
+  <si>
+    <t>*%^$%</t>
+  </si>
+  <si>
+    <t>EditCancelButton</t>
+  </si>
+  <si>
+    <t>BatchNamePrefix</t>
+  </si>
+  <si>
+    <t>BatchName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>NumberOfClasses</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>TeamFourSDETA</t>
+  </si>
+  <si>
+    <t>My Test Batch</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>InvalidBatchName</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>ValidProgramName</t>
+  </si>
+  <si>
+    <t>InvalidBatchNamePrefix</t>
+  </si>
+  <si>
+    <t>MissingProgram</t>
+  </si>
+  <si>
+    <t>Program Name is required.</t>
+  </si>
+  <si>
+    <t>MissingBatchName</t>
+  </si>
+  <si>
+    <t>Batch Name is required.</t>
+  </si>
+  <si>
+    <t>MissingStatus</t>
+  </si>
+  <si>
+    <t>Status is required.</t>
+  </si>
+  <si>
+    <t>MissingDesc</t>
+  </si>
+  <si>
+    <t>Batch Description is required.</t>
+  </si>
+  <si>
+    <t>MissingNoOfClass</t>
+  </si>
+  <si>
+    <t>Number of classes is required.</t>
+  </si>
+  <si>
+    <t>InvalidDescriptionEdit</t>
+  </si>
+  <si>
+    <t>This field should start with an alphabet and min 2 character.</t>
+  </si>
+  <si>
+    <t>ValidEdit</t>
+  </si>
+  <si>
+    <t>ValidSearch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -165,14 +434,23 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -181,13 +459,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,17 +493,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{316CB8BD-B5EE-42CE-B27A-C55C637D5B53}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,15 +733,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -462,156 +766,2897 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C029B5E5-F3C9-4D25-B852-132970CAF380}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="26" width="8.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7">
+        <v>45209</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5DB442-0B52-41E2-9DAC-59C293629272}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="3" width="31.90625" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31.6328125" customWidth="1"/>
+    <col min="6" max="6" width="36.26953125" customWidth="1"/>
+    <col min="7" max="7" width="43.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11">
+        <v>1234</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1212</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11">
+        <v>1212</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
+        <v>1212</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <v>1212</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <v>1212</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11">
+        <v>1123</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="11">
+        <v>10</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F31D4-4607-44BA-AE04-13824B74BD83}">
-  <dimension ref="A1:L5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB6B25B-4DFB-4EED-B43D-73B45F3508AB}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45209</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="4" t="s">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>32</v>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\Hackathon\LMS_UI_Hackathon_Oct24\Team4_SeleniumSquad_LMSUI\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72D39B5-9AB5-406A-AD9C-E53096FFC93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F313E4-895E-47D5-ADB2-0250F90E56A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="ClassAdd" sheetId="2" r:id="rId2"/>
     <sheet name="Class" sheetId="4" r:id="rId3"/>
-    <sheet name="Program" sheetId="3" r:id="rId4"/>
+    <sheet name="Batch" sheetId="5" r:id="rId4"/>
+    <sheet name="Program" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
   <si>
     <t>testcase</t>
   </si>
@@ -338,13 +339,91 @@
   </si>
   <si>
     <t>EditCancelButton</t>
+  </si>
+  <si>
+    <t>BatchNamePrefix</t>
+  </si>
+  <si>
+    <t>BatchName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>NumberOfClasses</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>TeamFourSDETA</t>
+  </si>
+  <si>
+    <t>My Test Batch</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>InvalidBatchName</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>ValidProgramName</t>
+  </si>
+  <si>
+    <t>InvalidBatchNamePrefix</t>
+  </si>
+  <si>
+    <t>MissingProgram</t>
+  </si>
+  <si>
+    <t>Program Name is required.</t>
+  </si>
+  <si>
+    <t>MissingBatchName</t>
+  </si>
+  <si>
+    <t>Batch Name is required.</t>
+  </si>
+  <si>
+    <t>MissingStatus</t>
+  </si>
+  <si>
+    <t>Status is required.</t>
+  </si>
+  <si>
+    <t>MissingDesc</t>
+  </si>
+  <si>
+    <t>Batch Description is required.</t>
+  </si>
+  <si>
+    <t>MissingNoOfClass</t>
+  </si>
+  <si>
+    <t>Number of classes is required.</t>
+  </si>
+  <si>
+    <t>InvalidDescriptionEdit</t>
+  </si>
+  <si>
+    <t>This field should start with an alphabet and min 2 character.</t>
+  </si>
+  <si>
+    <t>ValidEdit</t>
+  </si>
+  <si>
+    <t>ValidSearch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -380,6 +459,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -404,8 +491,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -415,14 +503,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{3D155FC5-9152-45EE-AE14-CF767C13E12D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1702,152 +1793,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>45209</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2854,258 +2924,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB6B25B-4DFB-4EED-B43D-73B45F3508AB}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3113,6 +3079,291 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6B65DE-E61F-45E0-86C0-115CEB067D3A}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
+        <v>1234</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1212</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <v>1212</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <v>1212</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>1212</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>1212</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8">
+        <v>1123</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\Hackathon\LMS_UI_Hackathon_Oct24\Team4_SeleniumSquad_LMSUI\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F313E4-895E-47D5-ADB2-0250F90E56A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37172BB1-9B0B-4311-ABED-95AD804C88FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="133">
   <si>
     <t>testcase</t>
   </si>
@@ -417,29 +417,24 @@
   </si>
   <si>
     <t>ValidSearch</t>
+  </si>
+  <si>
+    <t>InvalidUserName</t>
+  </si>
+  <si>
+    <t>InvalidPass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -467,6 +462,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -491,28 +493,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{3D155FC5-9152-45EE-AE14-CF767C13E12D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -732,7 +735,9 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -741,40 +746,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1772,7 +1793,9 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C029B5E5-F3C9-4D25-B852-132970CAF380}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{E6E4CBB0-8C2B-4DC3-9301-264D024FF920}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{99725CC4-5239-44CF-A661-3FAE40FC1D61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -1789,7 +1812,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="8.6328125" customWidth="1"/>
+    <col min="1" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1802,7 +1827,7 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
@@ -1817,13 +1842,13 @@
       <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L1" t="s">
@@ -1837,7 +1862,7 @@
       <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
@@ -1851,13 +1876,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D3" t="s">
@@ -1866,7 +1891,7 @@
       <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>53</v>
       </c>
       <c r="I3" t="s">
@@ -1883,19 +1908,19 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>45209</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>53</v>
       </c>
       <c r="L4" t="s">
@@ -1903,19 +1928,19 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2925,151 +2950,151 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3082,281 +3107,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6B65DE-E61F-45E0-86C0-115CEB067D3A}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8">
+      <c r="D3">
         <v>1234</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <v>1212</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8">
+      <c r="B7" s="4"/>
+      <c r="D7">
         <v>1212</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>1212</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8">
+      <c r="F9" s="4"/>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8">
+      <c r="D10">
         <v>1212</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8">
+      <c r="D11">
         <v>1212</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8">
+      <c r="D12" s="4"/>
+      <c r="E12">
         <v>1123</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13">
         <v>10</v>
       </c>
-      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3380,143 +3362,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/src/test/resources/testData/LMSData.xlsx
+++ b/src/test/resources/testData/LMSData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\Hackathon\LMS_UI_Hackathon_Oct24\Team4_SeleniumSquad_LMSUI\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37172BB1-9B0B-4311-ABED-95AD804C88FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE5FEF2-50D1-4329-AE74-B48D714C24BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -735,7 +735,7 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1806,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1943,6 +1943,7 @@
       <c r="K5" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
